--- a/biology/Zoologie/Eremias_montana/Eremias_montana.xlsx
+++ b/biology/Zoologie/Eremias_montana/Eremias_montana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremias montana est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremias montana est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Iran[1]. Elle se rencontre dans les provinces de Kermanshah, du Kurdistan et de Hamedan[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Iran. Elle se rencontre dans les provinces de Kermanshah, du Kurdistan et de Hamedan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 152,2 mm de longueur totale dont 57,2 mm sans la queue et 95 mm de queue et le mâle paratype 52,9 mm sans la queue[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 152,2 mm de longueur totale dont 57,2 mm sans la queue et 95 mm de queue et le mâle paratype 52,9 mm sans la queue.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremias novo[4] a été placée en synonymie avec Eremias montana par Bahmani, Rastegar-Pouyani et Gharzi en 2011[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremias novo a été placée en synonymie avec Eremias montana par Bahmani, Rastegar-Pouyani et Gharzi en 2011.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique montana vient du latin montana, se rapportant aux montagnes, en référence à l'habitat de ce saurien[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique montana vient du latin montana, se rapportant aux montagnes, en référence à l'habitat de ce saurien.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rastegar-Pouyani &amp; Rastegar-Pouyani, 2001 : A new species of Eremias (Sauria: Lacertidae) from highlands of Kermanshah Province, western Iran. Asiatic Herpetological Research, vol. 9, p. 107-112 (texte intégral).</t>
         </is>
